--- a/sic/Feature_data_base_20_60_final_06_28_1.xlsx
+++ b/sic/Feature_data_base_20_60_final_06_28_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>WTI</t>
   </si>
@@ -507,1036 +507,520 @@
     <t>메모리 수출금액_60</t>
   </si>
   <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>2010-04-01</t>
+    <t>2010-04-30</t>
   </si>
   <si>
-    <t>2010-05-03</t>
+    <t>2010-05-31</t>
   </si>
   <si>
-    <t>2010-06-01</t>
+    <t>2010-06-30</t>
   </si>
   <si>
-    <t>2010-07-01</t>
+    <t>2010-07-31</t>
   </si>
   <si>
-    <t>2010-08-02</t>
+    <t>2010-08-31</t>
   </si>
   <si>
-    <t>2010-09-01</t>
+    <t>2010-09-30</t>
   </si>
   <si>
-    <t>2010-10-01</t>
+    <t>2010-10-31</t>
   </si>
   <si>
-    <t>2010-11-01</t>
+    <t>2010-11-30</t>
   </si>
   <si>
-    <t>2010-12-01</t>
+    <t>2010-12-31</t>
   </si>
   <si>
-    <t>2011-01-03</t>
+    <t>2011-01-31</t>
   </si>
   <si>
-    <t>2011-02-01</t>
+    <t>2011-02-28</t>
   </si>
   <si>
-    <t>2011-03-02</t>
+    <t>2011-03-31</t>
   </si>
   <si>
-    <t>2011-04-01</t>
+    <t>2011-04-30</t>
   </si>
   <si>
-    <t>2011-05-02</t>
+    <t>2011-05-31</t>
   </si>
   <si>
-    <t>2011-06-01</t>
+    <t>2011-06-30</t>
   </si>
   <si>
-    <t>2011-07-01</t>
+    <t>2011-07-31</t>
   </si>
   <si>
-    <t>2011-08-01</t>
+    <t>2011-08-31</t>
   </si>
   <si>
-    <t>2011-09-01</t>
+    <t>2011-09-30</t>
   </si>
   <si>
-    <t>2011-10-04</t>
+    <t>2011-10-31</t>
   </si>
   <si>
-    <t>2011-11-01</t>
+    <t>2011-11-30</t>
   </si>
   <si>
-    <t>2011-12-01</t>
+    <t>2011-12-31</t>
   </si>
   <si>
-    <t>2012-01-03</t>
+    <t>2012-01-31</t>
   </si>
   <si>
-    <t>2012-02-01</t>
+    <t>2012-02-29</t>
   </si>
   <si>
-    <t>2012-03-02</t>
+    <t>2012-03-31</t>
   </si>
   <si>
-    <t>2012-04-02</t>
+    <t>2012-04-30</t>
   </si>
   <si>
-    <t>2012-05-02</t>
+    <t>2012-05-31</t>
   </si>
   <si>
-    <t>2012-06-01</t>
+    <t>2012-06-30</t>
   </si>
   <si>
-    <t>2012-07-02</t>
+    <t>2012-07-31</t>
   </si>
   <si>
-    <t>2012-08-01</t>
+    <t>2012-08-31</t>
   </si>
   <si>
-    <t>2012-09-04</t>
+    <t>2012-09-30</t>
   </si>
   <si>
-    <t>2012-10-02</t>
+    <t>2012-10-31</t>
   </si>
   <si>
-    <t>2012-11-01</t>
+    <t>2012-11-30</t>
   </si>
   <si>
-    <t>2012-12-03</t>
+    <t>2012-12-31</t>
   </si>
   <si>
-    <t>2013-01-02</t>
+    <t>2013-01-31</t>
   </si>
   <si>
-    <t>2013-02-01</t>
+    <t>2013-02-28</t>
   </si>
   <si>
-    <t>2013-03-04</t>
+    <t>2013-03-31</t>
   </si>
   <si>
-    <t>2013-04-01</t>
+    <t>2013-04-30</t>
   </si>
   <si>
-    <t>2013-05-02</t>
+    <t>2013-05-31</t>
   </si>
   <si>
-    <t>2013-06-03</t>
+    <t>2013-06-30</t>
   </si>
   <si>
-    <t>2013-07-01</t>
+    <t>2013-07-31</t>
   </si>
   <si>
-    <t>2013-08-01</t>
+    <t>2013-08-31</t>
   </si>
   <si>
-    <t>2013-09-03</t>
+    <t>2013-09-30</t>
   </si>
   <si>
-    <t>2013-10-01</t>
+    <t>2013-10-31</t>
   </si>
   <si>
-    <t>2013-11-01</t>
+    <t>2013-11-30</t>
   </si>
   <si>
-    <t>2013-12-02</t>
+    <t>2013-12-31</t>
   </si>
   <si>
-    <t>2014-01-02</t>
+    <t>2014-01-31</t>
   </si>
   <si>
-    <t>2014-02-03</t>
+    <t>2014-02-28</t>
   </si>
   <si>
-    <t>2014-03-03</t>
+    <t>2014-03-31</t>
   </si>
   <si>
-    <t>2014-04-01</t>
+    <t>2014-04-30</t>
   </si>
   <si>
-    <t>2014-05-02</t>
+    <t>2014-05-31</t>
   </si>
   <si>
-    <t>2014-06-02</t>
+    <t>2014-06-30</t>
   </si>
   <si>
-    <t>2014-07-01</t>
+    <t>2014-07-31</t>
   </si>
   <si>
-    <t>2014-08-01</t>
+    <t>2014-08-31</t>
   </si>
   <si>
-    <t>2014-09-02</t>
+    <t>2014-09-30</t>
   </si>
   <si>
-    <t>2014-10-01</t>
+    <t>2014-10-31</t>
   </si>
   <si>
-    <t>2014-11-03</t>
+    <t>2014-11-30</t>
   </si>
   <si>
-    <t>2014-12-01</t>
+    <t>2014-12-31</t>
   </si>
   <si>
-    <t>2015-01-02</t>
+    <t>2015-01-31</t>
   </si>
   <si>
-    <t>2015-02-02</t>
+    <t>2015-02-28</t>
   </si>
   <si>
-    <t>2015-03-02</t>
+    <t>2015-03-31</t>
   </si>
   <si>
-    <t>2015-04-01</t>
+    <t>2015-04-30</t>
   </si>
   <si>
-    <t>2015-05-04</t>
+    <t>2015-05-31</t>
   </si>
   <si>
-    <t>2015-06-01</t>
+    <t>2015-06-30</t>
   </si>
   <si>
-    <t>2015-07-01</t>
+    <t>2015-07-31</t>
   </si>
   <si>
-    <t>2015-08-03</t>
+    <t>2015-08-31</t>
   </si>
   <si>
-    <t>2015-09-01</t>
+    <t>2015-09-30</t>
   </si>
   <si>
-    <t>2015-10-01</t>
+    <t>2015-10-31</t>
   </si>
   <si>
-    <t>2015-11-02</t>
+    <t>2015-11-30</t>
   </si>
   <si>
-    <t>2015-12-01</t>
+    <t>2015-12-31</t>
   </si>
   <si>
-    <t>2016-01-04</t>
+    <t>2016-01-31</t>
   </si>
   <si>
-    <t>2016-02-01</t>
+    <t>2016-02-29</t>
   </si>
   <si>
-    <t>2016-03-02</t>
+    <t>2016-03-31</t>
   </si>
   <si>
-    <t>2016-04-01</t>
+    <t>2016-04-30</t>
   </si>
   <si>
-    <t>2016-05-02</t>
+    <t>2016-05-31</t>
   </si>
   <si>
-    <t>2016-06-01</t>
+    <t>2016-06-30</t>
   </si>
   <si>
-    <t>2016-07-01</t>
+    <t>2016-07-31</t>
   </si>
   <si>
-    <t>2016-08-01</t>
+    <t>2016-08-31</t>
   </si>
   <si>
-    <t>2016-09-01</t>
+    <t>2016-09-30</t>
   </si>
   <si>
-    <t>2016-10-04</t>
+    <t>2016-10-31</t>
   </si>
   <si>
-    <t>2016-11-01</t>
+    <t>2016-11-30</t>
   </si>
   <si>
-    <t>2016-12-01</t>
+    <t>2016-12-31</t>
   </si>
   <si>
-    <t>2017-01-03</t>
+    <t>2017-01-31</t>
   </si>
   <si>
-    <t>2017-02-01</t>
+    <t>2017-02-28</t>
   </si>
   <si>
-    <t>2017-03-02</t>
+    <t>2017-03-31</t>
   </si>
   <si>
-    <t>2017-04-03</t>
+    <t>2017-04-30</t>
   </si>
   <si>
-    <t>2017-05-02</t>
+    <t>2017-05-31</t>
   </si>
   <si>
-    <t>2017-06-01</t>
+    <t>2017-06-30</t>
   </si>
   <si>
-    <t>2017-07-05</t>
+    <t>2017-07-31</t>
   </si>
   <si>
-    <t>2017-08-01</t>
+    <t>2017-08-31</t>
   </si>
   <si>
-    <t>2017-09-01</t>
+    <t>2017-09-30</t>
   </si>
   <si>
-    <t>2017-10-10</t>
+    <t>2017-10-31</t>
   </si>
   <si>
-    <t>2017-11-01</t>
+    <t>2017-11-30</t>
   </si>
   <si>
-    <t>2017-12-01</t>
+    <t>2017-12-31</t>
   </si>
   <si>
-    <t>2018-01-02</t>
+    <t>2018-01-31</t>
   </si>
   <si>
-    <t>2018-02-01</t>
+    <t>2018-02-28</t>
   </si>
   <si>
-    <t>2018-03-02</t>
+    <t>2018-03-31</t>
   </si>
   <si>
-    <t>2018-04-02</t>
+    <t>2018-04-30</t>
   </si>
   <si>
-    <t>2018-05-02</t>
+    <t>2018-05-31</t>
   </si>
   <si>
-    <t>2018-06-01</t>
+    <t>2018-06-30</t>
   </si>
   <si>
-    <t>2018-07-02</t>
+    <t>2018-07-31</t>
   </si>
   <si>
-    <t>2018-08-01</t>
+    <t>2018-08-31</t>
   </si>
   <si>
-    <t>2018-09-04</t>
+    <t>2018-09-30</t>
   </si>
   <si>
-    <t>2018-10-01</t>
+    <t>2018-10-31</t>
   </si>
   <si>
-    <t>2018-11-01</t>
+    <t>2018-11-30</t>
   </si>
   <si>
-    <t>2018-12-03</t>
+    <t>2018-12-31</t>
   </si>
   <si>
-    <t>2019-01-02</t>
+    <t>2019-01-31</t>
   </si>
   <si>
-    <t>2019-02-01</t>
+    <t>2019-02-28</t>
   </si>
   <si>
-    <t>2019-03-04</t>
+    <t>2019-03-31</t>
   </si>
   <si>
-    <t>2019-04-01</t>
+    <t>2019-04-30</t>
   </si>
   <si>
-    <t>2019-05-02</t>
+    <t>2019-05-31</t>
   </si>
   <si>
-    <t>2019-06-03</t>
+    <t>2019-06-30</t>
   </si>
   <si>
-    <t>2019-07-01</t>
+    <t>2019-07-31</t>
   </si>
   <si>
-    <t>2019-08-01</t>
+    <t>2019-08-31</t>
   </si>
   <si>
-    <t>2019-09-03</t>
+    <t>2019-09-30</t>
   </si>
   <si>
-    <t>2019-10-01</t>
+    <t>2019-10-31</t>
   </si>
   <si>
-    <t>2019-11-01</t>
+    <t>2019-11-30</t>
   </si>
   <si>
-    <t>2019-12-02</t>
+    <t>2019-12-31</t>
   </si>
   <si>
-    <t>2020-01-02</t>
+    <t>2020-01-31</t>
   </si>
   <si>
-    <t>2020-02-03</t>
+    <t>2020-02-29</t>
   </si>
   <si>
-    <t>2020-03-02</t>
+    <t>2020-03-31</t>
   </si>
   <si>
-    <t>2020-04-01</t>
+    <t>2020-04-30</t>
   </si>
   <si>
-    <t>2020-05-04</t>
+    <t>2020-05-31</t>
   </si>
   <si>
-    <t>2020-06-01</t>
+    <t>2020-06-30</t>
   </si>
   <si>
-    <t>2020-07-01</t>
+    <t>2020-07-31</t>
   </si>
   <si>
-    <t>2020-08-03</t>
+    <t>2020-08-31</t>
   </si>
   <si>
-    <t>2020-09-01</t>
+    <t>2020-09-30</t>
   </si>
   <si>
-    <t>2020-10-05</t>
+    <t>2020-10-31</t>
   </si>
   <si>
-    <t>2020-11-02</t>
+    <t>2020-11-30</t>
   </si>
   <si>
-    <t>2020-12-01</t>
+    <t>2020-12-31</t>
   </si>
   <si>
-    <t>2021-01-04</t>
+    <t>2021-01-31</t>
   </si>
   <si>
-    <t>2021-02-01</t>
+    <t>2021-02-28</t>
   </si>
   <si>
-    <t>2021-03-02</t>
+    <t>2021-03-31</t>
   </si>
   <si>
-    <t>2021-04-01</t>
+    <t>2021-04-30</t>
   </si>
   <si>
-    <t>2021-05-03</t>
+    <t>2021-05-31</t>
   </si>
   <si>
-    <t>2021-06-01</t>
+    <t>2021-06-30</t>
   </si>
   <si>
-    <t>2021-07-01</t>
+    <t>2021-07-31</t>
   </si>
   <si>
-    <t>2021-08-02</t>
+    <t>2021-08-31</t>
   </si>
   <si>
-    <t>2021-09-01</t>
+    <t>2021-09-30</t>
   </si>
   <si>
-    <t>2021-10-01</t>
+    <t>2021-10-31</t>
   </si>
   <si>
-    <t>2021-11-01</t>
+    <t>2021-11-30</t>
   </si>
   <si>
-    <t>2021-12-01</t>
+    <t>2021-12-31</t>
   </si>
   <si>
-    <t>2022-01-03</t>
+    <t>2022-01-31</t>
   </si>
   <si>
-    <t>2022-02-03</t>
+    <t>2022-02-28</t>
   </si>
   <si>
-    <t>2022-03-02</t>
+    <t>2022-03-31</t>
   </si>
   <si>
-    <t>2022-04-01</t>
+    <t>2022-04-30</t>
   </si>
   <si>
-    <t>2022-05-02</t>
+    <t>2022-05-31</t>
   </si>
   <si>
-    <t>2022-06-02</t>
+    <t>2022-06-30</t>
   </si>
   <si>
-    <t>2022-07-01</t>
+    <t>2022-07-31</t>
   </si>
   <si>
-    <t>2022-08-01</t>
+    <t>2022-08-31</t>
   </si>
   <si>
-    <t>2022-09-01</t>
+    <t>2022-09-30</t>
   </si>
   <si>
-    <t>2022-10-04</t>
+    <t>2022-10-31</t>
   </si>
   <si>
-    <t>2022-11-01</t>
+    <t>2022-11-30</t>
   </si>
   <si>
-    <t>2022-12-01</t>
+    <t>2022-12-31</t>
   </si>
   <si>
-    <t>2023-01-03</t>
+    <t>2023-01-31</t>
   </si>
   <si>
-    <t>2023-02-01</t>
+    <t>2023-02-28</t>
   </si>
   <si>
-    <t>2023-03-02</t>
+    <t>2023-03-31</t>
   </si>
   <si>
-    <t>2023-04-03</t>
+    <t>2023-04-30</t>
   </si>
   <si>
-    <t>2023-05-02</t>
+    <t>2023-05-31</t>
   </si>
   <si>
-    <t>2023-06-01</t>
+    <t>2023-06-30</t>
   </si>
   <si>
-    <t>2023-07-03</t>
+    <t>2023-07-31</t>
   </si>
   <si>
-    <t>2023-08-01</t>
+    <t>2023-08-31</t>
   </si>
   <si>
-    <t>2023-09-01</t>
+    <t>2023-09-30</t>
   </si>
   <si>
-    <t>2023-10-04</t>
+    <t>2023-10-31</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-30</t>
   </si>
   <si>
-    <t>2023-12-01</t>
+    <t>2023-12-31</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-31</t>
   </si>
   <si>
-    <t>2024-02-01</t>
+    <t>2024-02-29</t>
   </si>
   <si>
-    <t>2024-03-04</t>
+    <t>2024-03-31</t>
   </si>
   <si>
-    <t>2024-04-01</t>
+    <t>2024-04-30</t>
   </si>
   <si>
-    <t>2024-05-07</t>
+    <t>2024-05-31</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>2022-01</t>
-  </si>
-  <si>
-    <t>2022-02</t>
-  </si>
-  <si>
-    <t>2022-03</t>
-  </si>
-  <si>
-    <t>2022-04</t>
-  </si>
-  <si>
-    <t>2022-05</t>
-  </si>
-  <si>
-    <t>2022-06</t>
-  </si>
-  <si>
-    <t>2022-07</t>
-  </si>
-  <si>
-    <t>2022-08</t>
-  </si>
-  <si>
-    <t>2022-09</t>
-  </si>
-  <si>
-    <t>2022-10</t>
-  </si>
-  <si>
-    <t>2022-11</t>
-  </si>
-  <si>
-    <t>2022-12</t>
-  </si>
-  <si>
-    <t>2023-01</t>
-  </si>
-  <si>
-    <t>2023-02</t>
-  </si>
-  <si>
-    <t>2023-03</t>
-  </si>
-  <si>
-    <t>2023-04</t>
-  </si>
-  <si>
-    <t>2023-05</t>
-  </si>
-  <si>
-    <t>2023-06</t>
-  </si>
-  <si>
-    <t>2023-07</t>
-  </si>
-  <si>
-    <t>2023-08</t>
-  </si>
-  <si>
-    <t>2023-09</t>
-  </si>
-  <si>
-    <t>2023-10</t>
-  </si>
-  <si>
-    <t>2023-11</t>
-  </si>
-  <si>
-    <t>2023-12</t>
-  </si>
-  <si>
-    <t>2024-01</t>
-  </si>
-  <si>
-    <t>2024-02</t>
-  </si>
-  <si>
-    <t>2024-03</t>
-  </si>
-  <si>
-    <t>2024-04</t>
-  </si>
-  <si>
-    <t>2024-05</t>
-  </si>
-  <si>
-    <t>2024-06</t>
+    <t>2024-06-30</t>
   </si>
 </sst>
 </file>
@@ -1911,18 +1395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FH172"/>
+  <dimension ref="A1:FG172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2410,13 +1894,10 @@
       <c r="FG1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
     </row>
-    <row r="2" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>84.53</v>
@@ -2904,13 +2385,10 @@
       <c r="FG2">
         <v>-1.8862340663129611E-4</v>
       </c>
-      <c r="FH2" t="s">
-        <v>335</v>
-      </c>
     </row>
-    <row r="3" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>86.19</v>
@@ -3398,13 +2876,10 @@
       <c r="FG3">
         <v>3.6330714261121519E-3</v>
       </c>
-      <c r="FH3" t="s">
-        <v>336</v>
-      </c>
     </row>
-    <row r="4" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4">
         <v>72.7</v>
@@ -3892,13 +3367,10 @@
       <c r="FG4">
         <v>6.0188156809228297E-3</v>
       </c>
-      <c r="FH4" t="s">
-        <v>337</v>
-      </c>
     </row>
-    <row r="5" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>72.95</v>
@@ -4386,13 +3858,10 @@
       <c r="FG5">
         <v>4.9803934932388582E-3</v>
       </c>
-      <c r="FH5" t="s">
-        <v>338</v>
-      </c>
     </row>
-    <row r="6" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>81.25</v>
@@ -4880,13 +4349,10 @@
       <c r="FG6">
         <v>2.448104658021161E-3</v>
       </c>
-      <c r="FH6" t="s">
-        <v>339</v>
-      </c>
     </row>
-    <row r="7" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>73.97</v>
@@ -5374,13 +4840,10 @@
       <c r="FG7">
         <v>1.2149343773508389E-3</v>
       </c>
-      <c r="FH7" t="s">
-        <v>340</v>
-      </c>
     </row>
-    <row r="8" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>81.569999999999993</v>
@@ -5868,13 +5331,10 @@
       <c r="FG8">
         <v>2.263821138667224E-3</v>
       </c>
-      <c r="FH8" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="9" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>82.94</v>
@@ -6362,13 +5822,10 @@
       <c r="FG9">
         <v>1.299208543075508E-3</v>
       </c>
-      <c r="FH9" t="s">
-        <v>342</v>
-      </c>
     </row>
-    <row r="10" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>86.75</v>
@@ -6856,13 +6313,10 @@
       <c r="FG10">
         <v>-2.5023182240548111E-3</v>
       </c>
-      <c r="FH10" t="s">
-        <v>343</v>
-      </c>
     </row>
-    <row r="11" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>91.59</v>
@@ -7350,13 +6804,10 @@
       <c r="FG11">
         <v>-5.8225228202437446E-3</v>
       </c>
-      <c r="FH11" t="s">
-        <v>344</v>
-      </c>
     </row>
-    <row r="12" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>89.54</v>
@@ -7844,13 +7295,10 @@
       <c r="FG12">
         <v>-4.3841229309385084E-3</v>
       </c>
-      <c r="FH12" t="s">
-        <v>345</v>
-      </c>
     </row>
-    <row r="13" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>102.27</v>
@@ -8338,13 +7786,10 @@
       <c r="FG13">
         <v>-6.477767939532576E-4</v>
       </c>
-      <c r="FH13" t="s">
-        <v>346</v>
-      </c>
     </row>
-    <row r="14" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>107.55</v>
@@ -8832,13 +8277,10 @@
       <c r="FG14">
         <v>-5.3470183163562034E-4</v>
       </c>
-      <c r="FH14" t="s">
-        <v>347</v>
-      </c>
     </row>
-    <row r="15" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15">
         <v>113.03</v>
@@ -9326,13 +8768,10 @@
       <c r="FG15">
         <v>5.7632946229133975E-4</v>
       </c>
-      <c r="FH15" t="s">
-        <v>348</v>
-      </c>
     </row>
-    <row r="16" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16">
         <v>100.3</v>
@@ -9820,13 +9259,10 @@
       <c r="FG16">
         <v>3.7958036891610359E-3</v>
       </c>
-      <c r="FH16" t="s">
-        <v>349</v>
-      </c>
     </row>
-    <row r="17" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17">
         <v>94.81</v>
@@ -10314,13 +9750,10 @@
       <c r="FG17">
         <v>1.7536400306471659E-3</v>
       </c>
-      <c r="FH17" t="s">
-        <v>350</v>
-      </c>
     </row>
-    <row r="18" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>94.98</v>
@@ -10808,13 +10241,10 @@
       <c r="FG18">
         <v>-1.395852306773557E-3</v>
       </c>
-      <c r="FH18" t="s">
-        <v>351</v>
-      </c>
     </row>
-    <row r="19" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>88.93</v>
@@ -11302,13 +10732,10 @@
       <c r="FG19">
         <v>-3.3002999515250272E-3</v>
       </c>
-      <c r="FH19" t="s">
-        <v>352</v>
-      </c>
     </row>
-    <row r="20" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>75.400000000000006</v>
@@ -11796,13 +11223,10 @@
       <c r="FG20">
         <v>-4.2513593432282381E-3</v>
       </c>
-      <c r="FH20" t="s">
-        <v>353</v>
-      </c>
     </row>
-    <row r="21" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21">
         <v>92.19</v>
@@ -12290,13 +11714,10 @@
       <c r="FG21">
         <v>-1.634056031065564E-3</v>
       </c>
-      <c r="FH21" t="s">
-        <v>354</v>
-      </c>
     </row>
-    <row r="22" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22">
         <v>100.2</v>
@@ -12784,13 +12205,10 @@
       <c r="FG22">
         <v>1.106859381531738E-3</v>
       </c>
-      <c r="FH22" t="s">
-        <v>355</v>
-      </c>
     </row>
-    <row r="23" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23">
         <v>102.96</v>
@@ -13278,13 +12696,10 @@
       <c r="FG23">
         <v>1.2839639068368589E-4</v>
       </c>
-      <c r="FH23" t="s">
-        <v>356</v>
-      </c>
     </row>
-    <row r="24" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24">
         <v>97.63</v>
@@ -13772,13 +13187,10 @@
       <c r="FG24">
         <v>-2.05110310403145E-3</v>
       </c>
-      <c r="FH24" t="s">
-        <v>357</v>
-      </c>
     </row>
-    <row r="25" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25">
         <v>106.68</v>
@@ -14266,13 +13678,10 @@
       <c r="FG25">
         <v>-4.0528583861156537E-3</v>
       </c>
-      <c r="FH25" t="s">
-        <v>358</v>
-      </c>
     </row>
-    <row r="26" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26">
         <v>105.25</v>
@@ -14760,13 +14169,10 @@
       <c r="FG26">
         <v>-3.3788915696411331E-3</v>
       </c>
-      <c r="FH26" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="27" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27">
         <v>105.25</v>
@@ -15254,13 +14660,10 @@
       <c r="FG27">
         <v>1.2078578488316141E-3</v>
       </c>
-      <c r="FH27" t="s">
-        <v>360</v>
-      </c>
     </row>
-    <row r="28" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28">
         <v>83.17</v>
@@ -15748,13 +15151,10 @@
       <c r="FG28">
         <v>1.4833149738989161E-3</v>
       </c>
-      <c r="FH28" t="s">
-        <v>361</v>
-      </c>
     </row>
-    <row r="29" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29">
         <v>83.72</v>
@@ -16242,13 +15642,10 @@
       <c r="FG29">
         <v>1.0199927304230731E-3</v>
       </c>
-      <c r="FH29" t="s">
-        <v>362</v>
-      </c>
     </row>
-    <row r="30" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30">
         <v>88.99</v>
@@ -16736,13 +16133,10 @@
       <c r="FG30">
         <v>4.1611221171203184E-3</v>
       </c>
-      <c r="FH30" t="s">
-        <v>363</v>
-      </c>
     </row>
-    <row r="31" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31">
         <v>95.34</v>
@@ -17230,13 +16624,10 @@
       <c r="FG31">
         <v>-1.0252175348464271E-3</v>
       </c>
-      <c r="FH31" t="s">
-        <v>364</v>
-      </c>
     </row>
-    <row r="32" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32">
         <v>91.88</v>
@@ -17724,13 +17115,10 @@
       <c r="FG32">
         <v>-4.2084341023398411E-3</v>
       </c>
-      <c r="FH32" t="s">
-        <v>365</v>
-      </c>
     </row>
-    <row r="33" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33">
         <v>87.05</v>
@@ -18218,13 +17606,10 @@
       <c r="FG33">
         <v>-1.309892303305654E-3</v>
       </c>
-      <c r="FH33" t="s">
-        <v>366</v>
-      </c>
     </row>
-    <row r="34" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34">
         <v>88.69</v>
@@ -18712,13 +18097,10 @@
       <c r="FG34">
         <v>1.739489761006785E-3</v>
       </c>
-      <c r="FH34" t="s">
-        <v>367</v>
-      </c>
     </row>
-    <row r="35" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35">
         <v>93.14</v>
@@ -19206,13 +18588,10 @@
       <c r="FG35">
         <v>-8.1369171639792155E-5</v>
       </c>
-      <c r="FH35" t="s">
-        <v>368</v>
-      </c>
     </row>
-    <row r="36" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36">
         <v>97.46</v>
@@ -19700,13 +19079,10 @@
       <c r="FG36">
         <v>-9.4751266850842642E-4</v>
       </c>
-      <c r="FH36" t="s">
-        <v>369</v>
-      </c>
     </row>
-    <row r="37" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37">
         <v>90.13</v>
@@ -20194,13 +19570,10 @@
       <c r="FG37">
         <v>-2.8583118861401011E-3</v>
       </c>
-      <c r="FH37" t="s">
-        <v>370</v>
-      </c>
     </row>
-    <row r="38" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38">
         <v>97.1</v>
@@ -20688,13 +20061,10 @@
       <c r="FG38">
         <v>-2.7605485688159E-3</v>
       </c>
-      <c r="FH38" t="s">
-        <v>371</v>
-      </c>
     </row>
-    <row r="39" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39">
         <v>93.7</v>
@@ -21182,13 +20552,10 @@
       <c r="FG39">
         <v>5.2900253402405166E-3</v>
       </c>
-      <c r="FH39" t="s">
-        <v>372</v>
-      </c>
     </row>
-    <row r="40" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40">
         <v>93.41</v>
@@ -21676,13 +21043,10 @@
       <c r="FG40">
         <v>8.3708846399531672E-3</v>
       </c>
-      <c r="FH40" t="s">
-        <v>373</v>
-      </c>
     </row>
-    <row r="41" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41">
         <v>97.94</v>
@@ -22170,13 +21534,10 @@
       <c r="FG41">
         <v>4.814394478709458E-3</v>
       </c>
-      <c r="FH41" t="s">
-        <v>374</v>
-      </c>
     </row>
-    <row r="42" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42">
         <v>107.93</v>
@@ -22664,13 +22025,10 @@
       <c r="FG42">
         <v>3.843937812264418E-3</v>
       </c>
-      <c r="FH42" t="s">
-        <v>375</v>
-      </c>
     </row>
-    <row r="43" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43">
         <v>108.67</v>
@@ -23158,13 +22516,10 @@
       <c r="FG43">
         <v>2.4389540669714159E-3</v>
       </c>
-      <c r="FH43" t="s">
-        <v>376</v>
-      </c>
     </row>
-    <row r="44" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44">
         <v>102.09</v>
@@ -23652,13 +23007,10 @@
       <c r="FG44">
         <v>-6.8579134483320442E-6</v>
       </c>
-      <c r="FH44" t="s">
-        <v>377</v>
-      </c>
     </row>
-    <row r="45" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45">
         <v>94.56</v>
@@ -24146,13 +23498,10 @@
       <c r="FG45">
         <v>-2.4352461290993351E-4</v>
       </c>
-      <c r="FH45" t="s">
-        <v>378</v>
-      </c>
     </row>
-    <row r="46" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B46">
         <v>93.61</v>
@@ -24640,13 +23989,10 @@
       <c r="FG46">
         <v>9.345410524754193E-4</v>
       </c>
-      <c r="FH46" t="s">
-        <v>379</v>
-      </c>
     </row>
-    <row r="47" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47">
         <v>95.14</v>
@@ -25134,13 +24480,10 @@
       <c r="FG47">
         <v>3.9538480000177189E-4</v>
       </c>
-      <c r="FH47" t="s">
-        <v>380</v>
-      </c>
     </row>
-    <row r="48" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48">
         <v>96.44</v>
@@ -25628,13 +24971,10 @@
       <c r="FG48">
         <v>8.4156041660713918E-4</v>
       </c>
-      <c r="FH48" t="s">
-        <v>381</v>
-      </c>
     </row>
-    <row r="49" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B49">
         <v>105.34</v>
@@ -26122,13 +25462,10 @@
       <c r="FG49">
         <v>9.3633539136756287E-4</v>
       </c>
-      <c r="FH49" t="s">
-        <v>382</v>
-      </c>
     </row>
-    <row r="50" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50">
         <v>99.69</v>
@@ -26616,13 +25953,10 @@
       <c r="FG50">
         <v>-1.237769225759057E-3</v>
       </c>
-      <c r="FH50" t="s">
-        <v>383</v>
-      </c>
     </row>
-    <row r="51" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51">
         <v>100.09</v>
@@ -27110,13 +26444,10 @@
       <c r="FG51">
         <v>4.0476186983071208E-4</v>
       </c>
-      <c r="FH51" t="s">
-        <v>384</v>
-      </c>
     </row>
-    <row r="52" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52">
         <v>103.07</v>
@@ -27604,13 +26935,10 @@
       <c r="FG52">
         <v>3.1396314762228371E-3</v>
       </c>
-      <c r="FH52" t="s">
-        <v>385</v>
-      </c>
     </row>
-    <row r="53" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53">
         <v>106.06</v>
@@ -28098,13 +27426,10 @@
       <c r="FG53">
         <v>2.9900407135448571E-3</v>
       </c>
-      <c r="FH53" t="s">
-        <v>386</v>
-      </c>
     </row>
-    <row r="54" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54">
         <v>97.86</v>
@@ -28592,13 +27917,10 @@
       <c r="FG54">
         <v>2.0452119463356079E-3</v>
       </c>
-      <c r="FH54" t="s">
-        <v>387</v>
-      </c>
     </row>
-    <row r="55" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B55">
         <v>92.92</v>
@@ -29086,13 +28408,10 @@
       <c r="FG55">
         <v>1.8645447825491679E-3</v>
       </c>
-      <c r="FH55" t="s">
-        <v>388</v>
-      </c>
     </row>
-    <row r="56" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56">
         <v>90.74</v>
@@ -29580,13 +28899,10 @@
       <c r="FG56">
         <v>1.1304899467391521E-3</v>
       </c>
-      <c r="FH56" t="s">
-        <v>389</v>
-      </c>
     </row>
-    <row r="57" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B57">
         <v>78.77</v>
@@ -30074,13 +29390,10 @@
       <c r="FG57">
         <v>1.019320805335267E-3</v>
       </c>
-      <c r="FH57" t="s">
-        <v>390</v>
-      </c>
     </row>
-    <row r="58" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B58">
         <v>68.98</v>
@@ -30568,13 +29881,10 @@
       <c r="FG58">
         <v>4.2581013914169777E-4</v>
       </c>
-      <c r="FH58" t="s">
-        <v>391</v>
-      </c>
     </row>
-    <row r="59" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B59">
         <v>52.72</v>
@@ -31062,13 +30372,10 @@
       <c r="FG59">
         <v>-6.2557971849863962E-4</v>
       </c>
-      <c r="FH59" t="s">
-        <v>392</v>
-      </c>
     </row>
-    <row r="60" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B60">
         <v>49.25</v>
@@ -31556,13 +30863,10 @@
       <c r="FG60">
         <v>-5.6897311185232955E-4</v>
       </c>
-      <c r="FH60" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="61" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B61">
         <v>49.59</v>
@@ -32050,13 +31354,10 @@
       <c r="FG61">
         <v>-1.4388882328687271E-3</v>
       </c>
-      <c r="FH61" t="s">
-        <v>394</v>
-      </c>
     </row>
-    <row r="62" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B62">
         <v>50.12</v>
@@ -32544,13 +31845,10 @@
       <c r="FG62">
         <v>-3.377713800762469E-3</v>
       </c>
-      <c r="FH62" t="s">
-        <v>395</v>
-      </c>
     </row>
-    <row r="63" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B63">
         <v>58.92</v>
@@ -33038,13 +32336,10 @@
       <c r="FG63">
         <v>-1.7916523437023449E-3</v>
       </c>
-      <c r="FH63" t="s">
-        <v>396</v>
-      </c>
     </row>
-    <row r="64" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B64">
         <v>60.24</v>
@@ -33532,13 +32827,10 @@
       <c r="FG64">
         <v>3.3313106690229281E-4</v>
       </c>
-      <c r="FH64" t="s">
-        <v>397</v>
-      </c>
     </row>
-    <row r="65" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B65">
         <v>56.94</v>
@@ -34026,13 +33318,10 @@
       <c r="FG65">
         <v>9.1878070227046201E-5</v>
       </c>
-      <c r="FH65" t="s">
-        <v>398</v>
-      </c>
     </row>
-    <row r="66" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B66">
         <v>45.25</v>
@@ -34520,13 +33809,10 @@
       <c r="FG66">
         <v>1.7512456778550099E-4</v>
       </c>
-      <c r="FH66" t="s">
-        <v>399</v>
-      </c>
     </row>
-    <row r="67" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B67">
         <v>45.38</v>
@@ -35014,13 +34300,10 @@
       <c r="FG67">
         <v>2.0203523207837182E-3</v>
       </c>
-      <c r="FH67" t="s">
-        <v>400</v>
-      </c>
     </row>
-    <row r="68" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B68">
         <v>44.75</v>
@@ -35508,13 +34791,10 @@
       <c r="FG68">
         <v>3.0028877997218218E-3</v>
       </c>
-      <c r="FH68" t="s">
-        <v>401</v>
-      </c>
     </row>
-    <row r="69" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B69">
         <v>46.12</v>
@@ -36002,13 +35282,10 @@
       <c r="FG69">
         <v>3.5320044020845458E-3</v>
       </c>
-      <c r="FH69" t="s">
-        <v>402</v>
-      </c>
     </row>
-    <row r="70" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B70">
         <v>40.58</v>
@@ -36496,13 +35773,10 @@
       <c r="FG70">
         <v>1.7871589278236951E-3</v>
       </c>
-      <c r="FH70" t="s">
-        <v>403</v>
-      </c>
     </row>
-    <row r="71" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B71">
         <v>36.81</v>
@@ -36990,13 +36264,10 @@
       <c r="FG71">
         <v>-2.4117885866122069E-3</v>
       </c>
-      <c r="FH71" t="s">
-        <v>404</v>
-      </c>
     </row>
-    <row r="72" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B72">
         <v>31.62</v>
@@ -37484,13 +36755,10 @@
       <c r="FG72">
         <v>-4.1380606403249396E-3</v>
       </c>
-      <c r="FH72" t="s">
-        <v>405</v>
-      </c>
     </row>
-    <row r="73" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B73">
         <v>34.57</v>
@@ -37978,13 +37246,10 @@
       <c r="FG73">
         <v>-3.7659188256127761E-3</v>
       </c>
-      <c r="FH73" t="s">
-        <v>406</v>
-      </c>
     </row>
-    <row r="74" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B74">
         <v>35.36</v>
@@ -38472,13 +37737,10 @@
       <c r="FG74">
         <v>-3.2256405188987201E-3</v>
       </c>
-      <c r="FH74" t="s">
-        <v>407</v>
-      </c>
     </row>
-    <row r="75" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B75">
         <v>44.75</v>
@@ -38966,13 +38228,10 @@
       <c r="FG75">
         <v>7.9642646565823401E-4</v>
       </c>
-      <c r="FH75" t="s">
-        <v>408</v>
-      </c>
     </row>
-    <row r="76" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76">
         <v>49.07</v>
@@ -39460,13 +38719,10 @@
       <c r="FG76">
         <v>2.1150809756601348E-3</v>
       </c>
-      <c r="FH76" t="s">
-        <v>409</v>
-      </c>
     </row>
-    <row r="77" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B77">
         <v>49.02</v>
@@ -39954,13 +39210,10 @@
       <c r="FG77">
         <v>1.364378529880224E-3</v>
       </c>
-      <c r="FH77" t="s">
-        <v>410</v>
-      </c>
     </row>
-    <row r="78" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B78">
         <v>40.049999999999997</v>
@@ -40448,13 +39701,10 @@
       <c r="FG78">
         <v>2.7563748100163932E-3</v>
       </c>
-      <c r="FH78" t="s">
-        <v>411</v>
-      </c>
     </row>
-    <row r="79" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B79">
         <v>43.17</v>
@@ -40942,13 +40192,10 @@
       <c r="FG79">
         <v>1.846681413717378E-3</v>
       </c>
-      <c r="FH79" t="s">
-        <v>412</v>
-      </c>
     </row>
-    <row r="80" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B80">
         <v>48.67</v>
@@ -41436,13 +40683,10 @@
       <c r="FG80">
         <v>1.8669398963470261E-3</v>
       </c>
-      <c r="FH80" t="s">
-        <v>413</v>
-      </c>
     </row>
-    <row r="81" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B81">
         <v>46.66</v>
@@ -41930,13 +41174,10 @@
       <c r="FG81">
         <v>3.3143211530158329E-3</v>
       </c>
-      <c r="FH81" t="s">
-        <v>414</v>
-      </c>
     </row>
-    <row r="82" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B82">
         <v>51.08</v>
@@ -42424,13 +41665,10 @@
       <c r="FG82">
         <v>2.2041505675227729E-3</v>
       </c>
-      <c r="FH82" t="s">
-        <v>415</v>
-      </c>
     </row>
-    <row r="83" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83">
         <v>52.36</v>
@@ -42918,13 +42156,10 @@
       <c r="FG83">
         <v>1.20957689942653E-3</v>
       </c>
-      <c r="FH83" t="s">
-        <v>416</v>
-      </c>
     </row>
-    <row r="84" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B84">
         <v>53.9</v>
@@ -43412,13 +42647,10 @@
       <c r="FG84">
         <v>2.759922343648242E-3</v>
       </c>
-      <c r="FH84" t="s">
-        <v>417</v>
-      </c>
     </row>
-    <row r="85" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B85">
         <v>52.63</v>
@@ -43906,13 +43138,10 @@
       <c r="FG85">
         <v>4.1198698035237414E-3</v>
       </c>
-      <c r="FH85" t="s">
-        <v>418</v>
-      </c>
     </row>
-    <row r="86" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B86">
         <v>50.25</v>
@@ -44400,13 +43629,10 @@
       <c r="FG86">
         <v>3.7147400057011789E-3</v>
       </c>
-      <c r="FH86" t="s">
-        <v>419</v>
-      </c>
     </row>
-    <row r="87" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B87">
         <v>47.65</v>
@@ -44894,13 +44120,10 @@
       <c r="FG87">
         <v>4.3982625474429434E-3</v>
       </c>
-      <c r="FH87" t="s">
-        <v>420</v>
-      </c>
     </row>
-    <row r="88" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B88">
         <v>48.32</v>
@@ -45388,13 +44611,10 @@
       <c r="FG88">
         <v>3.6646813309884839E-3</v>
       </c>
-      <c r="FH88" t="s">
-        <v>421</v>
-      </c>
     </row>
-    <row r="89" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B89">
         <v>45.11</v>
@@ -45882,13 +45102,10 @@
       <c r="FG89">
         <v>1.5722599212228321E-3</v>
       </c>
-      <c r="FH89" t="s">
-        <v>422</v>
-      </c>
     </row>
-    <row r="90" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B90">
         <v>49.19</v>
@@ -46376,13 +45593,10 @@
       <c r="FG90">
         <v>3.9518863166557642E-5</v>
       </c>
-      <c r="FH90" t="s">
-        <v>423</v>
-      </c>
     </row>
-    <row r="91" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B91">
         <v>47.32</v>
@@ -46870,13 +46084,10 @@
       <c r="FG91">
         <v>4.1636381323142428E-3</v>
       </c>
-      <c r="FH91" t="s">
-        <v>424</v>
-      </c>
     </row>
-    <row r="92" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B92">
         <v>50.93</v>
@@ -47364,13 +46575,10 @@
       <c r="FG92">
         <v>4.4838780916630142E-3</v>
       </c>
-      <c r="FH92" t="s">
-        <v>425</v>
-      </c>
     </row>
-    <row r="93" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B93">
         <v>54.32</v>
@@ -47858,13 +47066,10 @@
       <c r="FG93">
         <v>3.8038063459327909E-3</v>
       </c>
-      <c r="FH93" t="s">
-        <v>426</v>
-      </c>
     </row>
-    <row r="94" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B94">
         <v>58.35</v>
@@ -48352,13 +47557,10 @@
       <c r="FG94">
         <v>3.5311508766895589E-3</v>
       </c>
-      <c r="FH94" t="s">
-        <v>427</v>
-      </c>
     </row>
-    <row r="95" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B95">
         <v>60.37</v>
@@ -48846,13 +48048,10 @@
       <c r="FG95">
         <v>2.597879151842532E-3</v>
       </c>
-      <c r="FH95" t="s">
-        <v>428</v>
-      </c>
     </row>
-    <row r="96" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B96">
         <v>65.92</v>
@@ -49340,13 +48539,10 @@
       <c r="FG96">
         <v>1.285890258765413E-3</v>
       </c>
-      <c r="FH96" t="s">
-        <v>429</v>
-      </c>
     </row>
-    <row r="97" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B97">
         <v>61.19</v>
@@ -49834,13 +49030,10 @@
       <c r="FG97">
         <v>2.9712832207085389E-4</v>
       </c>
-      <c r="FH97" t="s">
-        <v>430</v>
-      </c>
     </row>
-    <row r="98" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B98">
         <v>63.05</v>
@@ -50328,13 +49521,10 @@
       <c r="FG98">
         <v>-1.2029072104783811E-3</v>
       </c>
-      <c r="FH98" t="s">
-        <v>431</v>
-      </c>
     </row>
-    <row r="99" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B99">
         <v>67.91</v>
@@ -50822,13 +50012,10 @@
       <c r="FG99">
         <v>2.0042424160846258E-3</v>
       </c>
-      <c r="FH99" t="s">
-        <v>432</v>
-      </c>
     </row>
-    <row r="100" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B100">
         <v>65.81</v>
@@ -51316,13 +50503,10 @@
       <c r="FG100">
         <v>2.3030907663442769E-3</v>
       </c>
-      <c r="FH100" t="s">
-        <v>433</v>
-      </c>
     </row>
-    <row r="101" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B101">
         <v>73.89</v>
@@ -51810,13 +50994,10 @@
       <c r="FG101">
         <v>1.1630664872622309E-3</v>
       </c>
-      <c r="FH101" t="s">
-        <v>434</v>
-      </c>
     </row>
-    <row r="102" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B102">
         <v>68.8</v>
@@ -52304,13 +51485,10 @@
       <c r="FG102">
         <v>2.2430334161860129E-3</v>
       </c>
-      <c r="FH102" t="s">
-        <v>435</v>
-      </c>
     </row>
-    <row r="103" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B103">
         <v>69.819999999999993</v>
@@ -52798,13 +51976,10 @@
       <c r="FG103">
         <v>-4.0343045530614791E-5</v>
       </c>
-      <c r="FH103" t="s">
-        <v>436</v>
-      </c>
     </row>
-    <row r="104" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B104">
         <v>75.37</v>
@@ -53292,13 +52467,10 @@
       <c r="FG104">
         <v>-7.8098996770543526E-4</v>
       </c>
-      <c r="FH104" t="s">
-        <v>437</v>
-      </c>
     </row>
-    <row r="105" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B105">
         <v>63.67</v>
@@ -53786,13 +52958,10 @@
       <c r="FG105">
         <v>3.9713470962398183E-3</v>
       </c>
-      <c r="FH105" t="s">
-        <v>438</v>
-      </c>
     </row>
-    <row r="106" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B106">
         <v>52.98</v>
@@ -54280,13 +53449,10 @@
       <c r="FG106">
         <v>3.35453826430224E-3</v>
       </c>
-      <c r="FH106" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="107" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B107">
         <v>46.31</v>
@@ -54774,13 +53940,10 @@
       <c r="FG107">
         <v>-2.952727656296757E-3</v>
       </c>
-      <c r="FH107" t="s">
-        <v>440</v>
-      </c>
     </row>
-    <row r="108" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B108">
         <v>55.29</v>
@@ -55268,13 +54431,10 @@
       <c r="FG108">
         <v>-9.7898747385374539E-3</v>
       </c>
-      <c r="FH108" t="s">
-        <v>441</v>
-      </c>
     </row>
-    <row r="109" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B109">
         <v>56.6</v>
@@ -55762,13 +54922,10 @@
       <c r="FG109">
         <v>-1.264353254969278E-2</v>
       </c>
-      <c r="FH109" t="s">
-        <v>442</v>
-      </c>
     </row>
-    <row r="110" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B110">
         <v>61.59</v>
@@ -56256,13 +55413,10 @@
       <c r="FG110">
         <v>-1.115508618194328E-2</v>
       </c>
-      <c r="FH110" t="s">
-        <v>443</v>
-      </c>
     </row>
-    <row r="111" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B111">
         <v>61.75</v>
@@ -56750,13 +55904,10 @@
       <c r="FG111">
         <v>2.2327074142368562E-3</v>
       </c>
-      <c r="FH111" t="s">
-        <v>444</v>
-      </c>
     </row>
-    <row r="112" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B112">
         <v>53.25</v>
@@ -57244,13 +56395,10 @@
       <c r="FG112">
         <v>6.7399289585024736E-3</v>
       </c>
-      <c r="FH112" t="s">
-        <v>445</v>
-      </c>
     </row>
-    <row r="113" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B113">
         <v>58.91</v>
@@ -57738,13 +56886,10 @@
       <c r="FG113">
         <v>2.0150377115132879E-5</v>
       </c>
-      <c r="FH113" t="s">
-        <v>446</v>
-      </c>
     </row>
-    <row r="114" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B114">
         <v>53.64</v>
@@ -58232,13 +57377,10 @@
       <c r="FG114">
         <v>-1.815999568085695E-3</v>
       </c>
-      <c r="FH114" t="s">
-        <v>447</v>
-      </c>
     </row>
-    <row r="115" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B115">
         <v>53.91</v>
@@ -58726,13 +57868,10 @@
       <c r="FG115">
         <v>-1.1691148737101951E-3</v>
       </c>
-      <c r="FH115" t="s">
-        <v>448</v>
-      </c>
     </row>
-    <row r="116" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B116">
         <v>53.6</v>
@@ -59220,13 +58359,10 @@
       <c r="FG116">
         <v>-2.3642808358048319E-3</v>
       </c>
-      <c r="FH116" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="117" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B117">
         <v>56.04</v>
@@ -59714,13 +58850,10 @@
       <c r="FG117">
         <v>2.2572379994556079E-4</v>
       </c>
-      <c r="FH117" t="s">
-        <v>450</v>
-      </c>
     </row>
-    <row r="118" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B118">
         <v>55.97</v>
@@ -60208,13 +59341,10 @@
       <c r="FG118">
         <v>7.883427728227661E-4</v>
       </c>
-      <c r="FH118" t="s">
-        <v>451</v>
-      </c>
     </row>
-    <row r="119" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B119">
         <v>61.17</v>
@@ -60702,13 +59832,10 @@
       <c r="FG119">
         <v>-2.8525573281160351E-3</v>
       </c>
-      <c r="FH119" t="s">
-        <v>452</v>
-      </c>
     </row>
-    <row r="120" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B120">
         <v>50.06</v>
@@ -61196,13 +60323,10 @@
       <c r="FG120">
         <v>-2.8275842311542699E-3</v>
       </c>
-      <c r="FH120" t="s">
-        <v>453</v>
-      </c>
     </row>
-    <row r="121" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B121">
         <v>46.78</v>
@@ -61690,13 +60814,10 @@
       <c r="FG121">
         <v>-2.30543369160696E-3</v>
       </c>
-      <c r="FH121" t="s">
-        <v>454</v>
-      </c>
     </row>
-    <row r="122" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B122">
         <v>20.28</v>
@@ -62184,13 +61305,10 @@
       <c r="FG122">
         <v>-1.5922083928212539E-3</v>
       </c>
-      <c r="FH122" t="s">
-        <v>455</v>
-      </c>
     </row>
-    <row r="123" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B123">
         <v>20.47</v>
@@ -62678,13 +61796,10 @@
       <c r="FG123">
         <v>3.0308288017104851E-3</v>
       </c>
-      <c r="FH123" t="s">
-        <v>456</v>
-      </c>
     </row>
-    <row r="124" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B124">
         <v>35.49</v>
@@ -63172,13 +62287,10 @@
       <c r="FG124">
         <v>2.667291913175089E-3</v>
       </c>
-      <c r="FH124" t="s">
-        <v>457</v>
-      </c>
     </row>
-    <row r="125" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B125">
         <v>39.880000000000003</v>
@@ -63666,13 +62778,10 @@
       <c r="FG125">
         <v>1.319719624959657E-3</v>
       </c>
-      <c r="FH125" t="s">
-        <v>458</v>
-      </c>
     </row>
-    <row r="126" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B126">
         <v>40.83</v>
@@ -63890,6 +62999,9 @@
       <c r="BU126">
         <v>-2.3149256016449802E-3</v>
       </c>
+      <c r="BV126">
+        <v>0.28571428571428581</v>
+      </c>
       <c r="BW126">
         <v>2.0862968231389299E-2</v>
       </c>
@@ -64157,13 +63269,10 @@
       <c r="FG126">
         <v>2.8474560745093839E-3</v>
       </c>
-      <c r="FH126" t="s">
-        <v>459</v>
-      </c>
     </row>
-    <row r="127" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B127">
         <v>42.76</v>
@@ -64651,13 +63760,10 @@
       <c r="FG127">
         <v>-5.8981729262396658E-4</v>
       </c>
-      <c r="FH127" t="s">
-        <v>460</v>
-      </c>
     </row>
-    <row r="128" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B128">
         <v>39.119999999999997</v>
@@ -65145,13 +64251,10 @@
       <c r="FG128">
         <v>-2.006414637802672E-3</v>
       </c>
-      <c r="FH128" t="s">
-        <v>461</v>
-      </c>
     </row>
-    <row r="129" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B129">
         <v>36.6</v>
@@ -65639,13 +64742,10 @@
       <c r="FG129">
         <v>2.0137965661382001E-3</v>
       </c>
-      <c r="FH129" t="s">
-        <v>462</v>
-      </c>
     </row>
-    <row r="130" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B130">
         <v>44.54</v>
@@ -66133,13 +65233,10 @@
       <c r="FG130">
         <v>3.085397020914146E-3</v>
       </c>
-      <c r="FH130" t="s">
-        <v>463</v>
-      </c>
     </row>
-    <row r="131" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B131">
         <v>47.47</v>
@@ -66627,13 +65724,10 @@
       <c r="FG131">
         <v>-1.137764500913508E-3</v>
       </c>
-      <c r="FH131" t="s">
-        <v>464</v>
-      </c>
     </row>
-    <row r="132" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B132">
         <v>53.55</v>
@@ -67121,13 +66215,10 @@
       <c r="FG132">
         <v>-8.9040689352973268E-4</v>
       </c>
-      <c r="FH132" t="s">
-        <v>465</v>
-      </c>
     </row>
-    <row r="133" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B133">
         <v>59.7</v>
@@ -67615,13 +66706,10 @@
       <c r="FG133">
         <v>4.9230196546128525E-4</v>
       </c>
-      <c r="FH133" t="s">
-        <v>466</v>
-      </c>
     </row>
-    <row r="134" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B134">
         <v>61.41</v>
@@ -68109,13 +67197,10 @@
       <c r="FG134">
         <v>-6.0408998110425549E-4</v>
       </c>
-      <c r="FH134" t="s">
-        <v>467</v>
-      </c>
     </row>
-    <row r="135" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B135">
         <v>64.459999999999994</v>
@@ -68603,13 +67688,10 @@
       <c r="FG135">
         <v>2.0049371175600299E-3</v>
       </c>
-      <c r="FH135" t="s">
-        <v>468</v>
-      </c>
     </row>
-    <row r="136" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B136">
         <v>67.8</v>
@@ -69097,13 +68179,10 @@
       <c r="FG136">
         <v>3.0772992927407118E-3</v>
       </c>
-      <c r="FH136" t="s">
-        <v>469</v>
-      </c>
     </row>
-    <row r="137" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B137">
         <v>75.33</v>
@@ -69591,13 +68670,10 @@
       <c r="FG137">
         <v>2.365029952685825E-3</v>
       </c>
-      <c r="FH137" t="s">
-        <v>470</v>
-      </c>
     </row>
-    <row r="138" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B138">
         <v>71.31</v>
@@ -70085,13 +69161,10 @@
       <c r="FG138">
         <v>4.8120446430142353E-3</v>
       </c>
-      <c r="FH138" t="s">
-        <v>471</v>
-      </c>
     </row>
-    <row r="139" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B139">
         <v>68.63</v>
@@ -70579,13 +69652,10 @@
       <c r="FG139">
         <v>2.7456293275930168E-3</v>
       </c>
-      <c r="FH139" t="s">
-        <v>472</v>
-      </c>
     </row>
-    <row r="140" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B140">
         <v>76.010000000000005</v>
@@ -71073,13 +70143,10 @@
       <c r="FG140">
         <v>7.9271833252000825E-4</v>
       </c>
-      <c r="FH140" t="s">
-        <v>473</v>
-      </c>
     </row>
-    <row r="141" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B141">
         <v>84.08</v>
@@ -71567,13 +70634,10 @@
       <c r="FG141">
         <v>1.8587658593899039E-3</v>
       </c>
-      <c r="FH141" t="s">
-        <v>474</v>
-      </c>
     </row>
-    <row r="142" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B142">
         <v>65.44</v>
@@ -72061,13 +71125,10 @@
       <c r="FG142">
         <v>4.637616256903514E-4</v>
       </c>
-      <c r="FH142" t="s">
-        <v>475</v>
-      </c>
     </row>
-    <row r="143" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B143">
         <v>75.989999999999995</v>
@@ -72555,13 +71616,10 @@
       <c r="FG143">
         <v>-1.5908640063055769E-3</v>
       </c>
-      <c r="FH143" t="s">
-        <v>476</v>
-      </c>
     </row>
-    <row r="144" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B144">
         <v>90.17</v>
@@ -73049,13 +72107,10 @@
       <c r="FG144">
         <v>1.2699135912164451E-3</v>
       </c>
-      <c r="FH144" t="s">
-        <v>477</v>
-      </c>
     </row>
-    <row r="145" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B145">
         <v>110.74</v>
@@ -73543,13 +72598,10 @@
       <c r="FG145">
         <v>2.3084794644505461E-4</v>
       </c>
-      <c r="FH145" t="s">
-        <v>478</v>
-      </c>
     </row>
-    <row r="146" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B146">
         <v>99.32</v>
@@ -74037,13 +73089,10 @@
       <c r="FG146">
         <v>-4.8576003232300843E-3</v>
       </c>
-      <c r="FH146" t="s">
-        <v>479</v>
-      </c>
     </row>
-    <row r="147" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B147">
         <v>105.18</v>
@@ -74531,13 +73580,10 @@
       <c r="FG147">
         <v>-1.1710675270959851E-5</v>
       </c>
-      <c r="FH147" t="s">
-        <v>480</v>
-      </c>
     </row>
-    <row r="148" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B148">
         <v>116.88</v>
@@ -75025,13 +74071,10 @@
       <c r="FG148">
         <v>1.957570993124897E-3</v>
       </c>
-      <c r="FH148" t="s">
-        <v>481</v>
-      </c>
     </row>
-    <row r="149" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B149">
         <v>110.3</v>
@@ -75519,13 +74562,10 @@
       <c r="FG149">
         <v>-8.8251229529892573E-4</v>
       </c>
-      <c r="FH149" t="s">
-        <v>482</v>
-      </c>
     </row>
-    <row r="150" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B150">
         <v>96.59</v>
@@ -76013,13 +75053,10 @@
       <c r="FG150">
         <v>8.4629557125881147E-4</v>
       </c>
-      <c r="FH150" t="s">
-        <v>483</v>
-      </c>
     </row>
-    <row r="151" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B151">
         <v>87.09</v>
@@ -76507,13 +75544,10 @@
       <c r="FG151">
         <v>-5.0156094799154731E-4</v>
       </c>
-      <c r="FH151" t="s">
-        <v>484</v>
-      </c>
     </row>
-    <row r="152" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B152">
         <v>86.87</v>
@@ -77001,13 +76035,10 @@
       <c r="FG152">
         <v>-5.1979641755043769E-3</v>
       </c>
-      <c r="FH152" t="s">
-        <v>485</v>
-      </c>
     </row>
-    <row r="153" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B153">
         <v>88.36</v>
@@ -77495,13 +76526,10 @@
       <c r="FG153">
         <v>-2.9988145104686802E-3</v>
       </c>
-      <c r="FH153" t="s">
-        <v>486</v>
-      </c>
     </row>
-    <row r="154" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B154">
         <v>81.06</v>
@@ -77989,13 +77017,10 @@
       <c r="FG154">
         <v>-3.3005091410169751E-3</v>
       </c>
-      <c r="FH154" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="155" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B155">
         <v>76.87</v>
@@ -78483,13 +77508,10 @@
       <c r="FG155">
         <v>-8.5058129801108759E-3</v>
       </c>
-      <c r="FH155" t="s">
-        <v>488</v>
-      </c>
     </row>
-    <row r="156" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B156">
         <v>76.34</v>
@@ -78977,13 +77999,10 @@
       <c r="FG156">
         <v>-8.3256481624689131E-3</v>
       </c>
-      <c r="FH156" t="s">
-        <v>489</v>
-      </c>
     </row>
-    <row r="157" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B157">
         <v>78.05</v>
@@ -79471,13 +78490,10 @@
       <c r="FG157">
         <v>-6.4763465125682387E-3</v>
       </c>
-      <c r="FH157" t="s">
-        <v>490</v>
-      </c>
     </row>
-    <row r="158" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B158">
         <v>80.400000000000006</v>
@@ -79965,13 +78981,10 @@
       <c r="FG158">
         <v>-7.1051326050731063E-3</v>
       </c>
-      <c r="FH158" t="s">
-        <v>491</v>
-      </c>
     </row>
-    <row r="159" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B159">
         <v>71.709999999999994</v>
@@ -80459,13 +79472,10 @@
       <c r="FG159">
         <v>2.8399654378423642E-3</v>
       </c>
-      <c r="FH159" t="s">
-        <v>492</v>
-      </c>
     </row>
-    <row r="160" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B160">
         <v>70.09</v>
@@ -80953,13 +79963,10 @@
       <c r="FG160">
         <v>3.5579489583700821E-3</v>
       </c>
-      <c r="FH160" t="s">
-        <v>493</v>
-      </c>
     </row>
-    <row r="161" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B161">
         <v>69.709999999999994</v>
@@ -81447,13 +80454,10 @@
       <c r="FG161">
         <v>-2.2679312392330062E-3</v>
       </c>
-      <c r="FH161" t="s">
-        <v>494</v>
-      </c>
     </row>
-    <row r="162" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B162">
         <v>81.37</v>
@@ -81941,13 +80945,10 @@
       <c r="FG162">
         <v>4.621614317853965E-3</v>
       </c>
-      <c r="FH162" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="163" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B163">
         <v>85.52</v>
@@ -82435,13 +81436,10 @@
       <c r="FG163">
         <v>3.5179560602667799E-3</v>
       </c>
-      <c r="FH163" t="s">
-        <v>496</v>
-      </c>
     </row>
-    <row r="164" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B164">
         <v>84.32</v>
@@ -82929,13 +81927,10 @@
       <c r="FG164">
         <v>-9.9280104714220743E-4</v>
       </c>
-      <c r="FH164" t="s">
-        <v>497</v>
-      </c>
     </row>
-    <row r="165" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B165">
         <v>81.05</v>
@@ -83423,13 +82418,10 @@
       <c r="FG165">
         <v>3.3788830935416068E-3</v>
       </c>
-      <c r="FH165" t="s">
-        <v>498</v>
-      </c>
     </row>
-    <row r="166" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B166">
         <v>73.7</v>
@@ -83917,13 +82909,10 @@
       <c r="FG166">
         <v>4.0031247351085021E-3</v>
       </c>
-      <c r="FH166" t="s">
-        <v>499</v>
-      </c>
     </row>
-    <row r="167" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B167">
         <v>70.62</v>
@@ -84411,13 +83400,10 @@
       <c r="FG167">
         <v>1.125813641962746E-4</v>
       </c>
-      <c r="FH167" t="s">
-        <v>500</v>
-      </c>
     </row>
-    <row r="168" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B168">
         <v>74.36</v>
@@ -84905,13 +83891,10 @@
       <c r="FG168">
         <v>5.7265922521153338E-3</v>
       </c>
-      <c r="FH168" t="s">
-        <v>501</v>
-      </c>
     </row>
-    <row r="169" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B169">
         <v>79.67</v>
@@ -85399,13 +84382,10 @@
       <c r="FG169">
         <v>5.034882478051581E-3</v>
       </c>
-      <c r="FH169" t="s">
-        <v>502</v>
-      </c>
     </row>
-    <row r="170" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B170">
         <v>84.54</v>
@@ -85893,13 +84873,10 @@
       <c r="FG170">
         <v>1.2220898613958171E-3</v>
       </c>
-      <c r="FH170" t="s">
-        <v>503</v>
-      </c>
     </row>
-    <row r="171" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B171">
         <v>80.250484206374111</v>
@@ -86387,13 +85364,10 @@
       <c r="FG171">
         <v>3.1253617446594839E-3</v>
       </c>
-      <c r="FH171" t="s">
-        <v>504</v>
-      </c>
     </row>
-    <row r="172" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:163" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B172">
         <v>76.894733389553423</v>
@@ -86880,13 +85854,11 @@
       </c>
       <c r="FG172">
         <v>2.709481705976991E-3</v>
-      </c>
-      <c r="FH172" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>